--- a/GATEWAY/A1#111ARBITEKXXXX/Arbitek/VisionDep/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111ARBITEKXXXX/Arbitek/VisionDep/1.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sviluppo\fse2.0\files_visiondep\A1#111ARBITEKXXXX\Arbitek\VisionDep\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E151AE98-B474-4D79-8EE2-95F1B3AF02BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1C722-1865-4A4B-BCF0-A872AFF25E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="9390" windowWidth="24240" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="37920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="561">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1961,9 +1961,6 @@
   </si>
   <si>
     <t>subject_application_version: 1.0</t>
-  </si>
-  <si>
-    <t>viene sempre reso maiuscolo</t>
   </si>
   <si>
     <t>Sono stati riscontrati problemi con l'archiviazione del documento. La stampa sarà comunque disponibile e il documento verrà archiviato in modo automatico non appena possibile.</t>
@@ -4508,10 +4505,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5000,16 +4997,16 @@
         <v>400</v>
       </c>
       <c r="F15" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="I15" s="33" t="s">
         <v>510</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>511</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>87</v>
@@ -5047,16 +5044,16 @@
         <v>401</v>
       </c>
       <c r="F16" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" s="33" t="s">
+      <c r="I16" s="33" t="s">
         <v>513</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>514</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>87</v>
@@ -5094,16 +5091,16 @@
         <v>402</v>
       </c>
       <c r="F17" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="I17" s="33" t="s">
         <v>516</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>517</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>87</v>
@@ -5141,16 +5138,16 @@
         <v>403</v>
       </c>
       <c r="F18" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="H18" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="I18" s="33" t="s">
         <v>519</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>520</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>87</v>
@@ -5669,29 +5666,43 @@
         <v>66</v>
       </c>
       <c r="F32" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="H32" s="33" t="s">
+      <c r="I32" s="33" t="s">
         <v>558</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>559</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
+      <c r="M32" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T32" s="34"/>
       <c r="U32" s="35"/>
       <c r="V32" s="36"/>
@@ -5975,29 +5986,43 @@
         <v>78</v>
       </c>
       <c r="F40" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="H40" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="G40" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>561</v>
-      </c>
       <c r="I40" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J40" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
+      <c r="M40" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T40" s="34"/>
       <c r="U40" s="35"/>
       <c r="V40" s="36"/>
@@ -6298,7 +6323,7 @@
         <v>87</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>87</v>
@@ -6310,7 +6335,7 @@
         <v>307</v>
       </c>
       <c r="S48" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T48" s="34"/>
       <c r="U48" s="35" t="s">
@@ -6979,29 +7004,43 @@
         <v>416</v>
       </c>
       <c r="F66" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="H66" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="G66" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="H66" s="33" t="s">
+      <c r="I66" s="33" t="s">
         <v>522</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>523</v>
       </c>
       <c r="J66" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
+      <c r="M66" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q66" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R66" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S66" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
       <c r="V66" s="36"/>
@@ -7035,16 +7074,28 @@
       <c r="K67" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="L67" s="34" t="s">
+      <c r="L67" s="34"/>
+      <c r="M67" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O67" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
+      <c r="P67" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R67" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S67" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
       <c r="V67" s="36"/>
@@ -7069,29 +7120,43 @@
         <v>417</v>
       </c>
       <c r="F68" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="H68" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="G68" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="H68" s="33" t="s">
+      <c r="I68" s="33" t="s">
         <v>525</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>526</v>
       </c>
       <c r="J68" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
+      <c r="M68" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O68" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P68" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R68" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S68" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
       <c r="V68" s="36"/>
@@ -7116,29 +7181,43 @@
         <v>419</v>
       </c>
       <c r="F69" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="H69" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="G69" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="H69" s="33" t="s">
+      <c r="I69" s="33" t="s">
         <v>528</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>529</v>
       </c>
       <c r="J69" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
+      <c r="M69" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O69" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R69" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S69" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
       <c r="V69" s="36"/>
@@ -7163,29 +7242,43 @@
         <v>420</v>
       </c>
       <c r="F70" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="H70" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="G70" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="H70" s="33" t="s">
+      <c r="I70" s="33" t="s">
         <v>531</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>532</v>
       </c>
       <c r="J70" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
+      <c r="M70" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R70" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S70" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
       <c r="V70" s="36"/>
@@ -7210,29 +7303,43 @@
         <v>421</v>
       </c>
       <c r="F71" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="H71" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="G71" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="H71" s="33" t="s">
+      <c r="I71" s="33" t="s">
         <v>534</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>535</v>
       </c>
       <c r="J71" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
+      <c r="M71" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O71" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P71" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q71" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R71" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S71" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T71" s="34"/>
       <c r="U71" s="35"/>
       <c r="V71" s="36"/>
@@ -7257,29 +7364,43 @@
         <v>422</v>
       </c>
       <c r="F72" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="G72" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="H72" s="33" t="s">
+      <c r="I72" s="33" t="s">
         <v>537</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>538</v>
       </c>
       <c r="J72" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
+      <c r="M72" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P72" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q72" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R72" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S72" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T72" s="34"/>
       <c r="U72" s="35"/>
       <c r="V72" s="36"/>
@@ -7304,29 +7425,43 @@
         <v>423</v>
       </c>
       <c r="F73" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H73" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="G73" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="H73" s="33" t="s">
+      <c r="I73" s="33" t="s">
         <v>540</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>541</v>
       </c>
       <c r="J73" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
+      <c r="M73" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O73" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P73" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q73" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R73" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S73" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T73" s="34"/>
       <c r="U73" s="35"/>
       <c r="V73" s="36"/>
@@ -7351,29 +7486,43 @@
         <v>424</v>
       </c>
       <c r="F74" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="H74" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="G74" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="H74" s="33" t="s">
+      <c r="I74" s="33" t="s">
         <v>543</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>544</v>
       </c>
       <c r="J74" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
+      <c r="M74" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O74" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q74" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R74" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S74" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T74" s="34"/>
       <c r="U74" s="35"/>
       <c r="V74" s="36"/>
@@ -7398,29 +7547,43 @@
         <v>425</v>
       </c>
       <c r="F75" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="H75" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="G75" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="H75" s="33" t="s">
+      <c r="I75" s="33" t="s">
         <v>546</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>547</v>
       </c>
       <c r="J75" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
+      <c r="M75" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N75" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P75" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S75" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T75" s="34"/>
       <c r="U75" s="35"/>
       <c r="V75" s="36"/>
@@ -7445,29 +7608,43 @@
         <v>426</v>
       </c>
       <c r="F76" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="H76" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="G76" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="H76" s="33" t="s">
+      <c r="I76" s="33" t="s">
         <v>549</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>550</v>
       </c>
       <c r="J76" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
+      <c r="M76" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N76" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O76" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P76" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q76" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R76" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S76" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T76" s="34"/>
       <c r="U76" s="35"/>
       <c r="V76" s="36"/>
@@ -7492,29 +7669,43 @@
         <v>427</v>
       </c>
       <c r="F77" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="H77" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="G77" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="H77" s="33" t="s">
+      <c r="I77" s="33" t="s">
         <v>552</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>553</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>87</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
+      <c r="M77" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N77" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P77" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q77" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R77" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S77" s="34" t="s">
+        <v>507</v>
+      </c>
       <c r="T77" s="34"/>
       <c r="U77" s="35"/>
       <c r="V77" s="36"/>
@@ -11757,16 +11948,16 @@
         <v>496</v>
       </c>
       <c r="F192" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="G192" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="H192" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="G192" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="H192" s="33" t="s">
+      <c r="I192" s="33" t="s">
         <v>555</v>
-      </c>
-      <c r="I192" s="33" t="s">
-        <v>556</v>
       </c>
       <c r="J192" s="34" t="s">
         <v>87</v>
@@ -17627,7 +17818,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J34 M34:N34 P34:R34 J10:J32 M36:N40 P36:R40 J42 M42:N42 P42:R42 J36:J40 M44:N48 P44:R48 P50:R225 J44:J48 M50:N225 P10:R32 M10:N32 J50:J225</xm:sqref>
+          <xm:sqref>J34 M34:N34 P34:R34 J10:J32 P10:R32 M50:N225 J42 M42:N42 P42:R42 J36:J40 M44:N48 P36:R40 P44:R48 J44:J48 M36:N40 J50:J225 M10:N32 P50:R225</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -19886,12 +20077,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20153,21 +20347,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20192,18 +20392,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>